--- a/InternalDocumentation/Schema.xlsx
+++ b/InternalDocumentation/Schema.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ViewScreen" sheetId="1" r:id="rId1"/>
     <sheet name="New_Edit_Client" sheetId="2" r:id="rId2"/>
     <sheet name="DropDowns" sheetId="4" r:id="rId3"/>
     <sheet name="WorkFlow" sheetId="3" r:id="rId4"/>
+    <sheet name="HomePage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>File Number</t>
   </si>
@@ -281,6 +282,18 @@
 A. Form 16, B. Annexure, C. Salary Computation, D. Exempt Allowances, E. Deduction Details, F. Tax Challans, G. Relief Calculation as per form number 10E.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Appointments</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Due Dates</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -380,8 +393,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -826,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1351,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1470,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1585,4 +1626,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>